--- a/Results/Categorization/dp-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1843">
   <si>
     <t>id</t>
   </si>
@@ -4036,412 +4036,460 @@
     <t>PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>PRICES|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>|place</t>
+  </si>
+  <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
   </si>
   <si>
     <t>service|perfection</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
   </si>
   <si>
     <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
   </si>
   <si>
+    <t>bit|service</t>
+  </si>
+  <si>
     <t>taste|mouth|service</t>
   </si>
   <si>
-    <t>self-respect</t>
+    <t>waiter|bit|self-respect</t>
   </si>
   <si>
     <t>notch|service</t>
   </si>
   <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
   </si>
   <si>
     <t>advanatage|half|price|sushi|deal</t>
   </si>
   <si>
-    <t>food|impecable</t>
+    <t>|food|impecable</t>
   </si>
   <si>
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4450,10 +4498,13 @@
     <t>service|varys</t>
   </si>
   <si>
+    <t>|food</t>
+  </si>
+  <si>
     <t>ambience|lunch|conversation</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|food|price|beginning</t>
@@ -4462,13 +4513,13 @@
     <t>dessert|lava|cake</t>
   </si>
   <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
   </si>
   <si>
     <t>pizza|cheese</t>
@@ -4492,10 +4543,10 @@
     <t>shrimp|wife</t>
   </si>
   <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
   </si>
   <si>
     <t>wife|staff</t>
@@ -4507,13 +4558,13 @@
     <t>service|decor|food|portions</t>
   </si>
   <si>
-    <t>point</t>
+    <t>hostess|point</t>
   </si>
   <si>
     <t>oily|food</t>
   </si>
   <si>
-    <t>food|wine|times|place|service</t>
+    <t>food|wine|place|service</t>
   </si>
   <si>
     <t>wait|trouble</t>
@@ -4522,19 +4573,34 @@
     <t>glass|wine</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>lunch|reviews</t>
   </si>
   <si>
-    <t>sauce|flavor|food</t>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
   </si>
   <si>
     <t>pizza|service</t>
   </si>
   <si>
-    <t>sushi|hands</t>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
   </si>
   <si>
     <t>food|place</t>
@@ -4546,13 +4612,13 @@
     <t>variety|menu</t>
   </si>
   <si>
-    <t>dumplings|section</t>
+    <t>|dumplings|lot|section</t>
   </si>
   <si>
     <t>sashimi|rolls</t>
   </si>
   <si>
-    <t>tuna</t>
+    <t>|tuna</t>
   </si>
   <si>
     <t>terrace|garden</t>
@@ -4561,7 +4627,7 @@
     <t>food|service</t>
   </si>
   <si>
-    <t>tartare|steak</t>
+    <t>bet|tartare|steak</t>
   </si>
   <si>
     <t>restaurant|kitchen|part</t>
@@ -4570,10 +4636,10 @@
     <t>selection|wine|value|price|champagne|house</t>
   </si>
   <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
   </si>
   <si>
     <t>neighborhood|food</t>
@@ -4582,22 +4648,22 @@
     <t>setting|service|occasion</t>
   </si>
   <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
-  </si>
-  <si>
-    <t>dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>specials</t>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
   </si>
   <si>
     <t>lounge</t>
@@ -4609,7 +4675,7 @@
     <t>beers|wines</t>
   </si>
   <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
   </si>
   <si>
     <t>service|food</t>
@@ -4621,37 +4687,40 @@
     <t>potatoes|tuna|wasabe</t>
   </si>
   <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
     <t>pizza|mozzarella|cheese|pizzaria</t>
   </si>
   <si>
     <t>selection|appetizer|complaints</t>
   </si>
   <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
   </si>
   <si>
     <t>quality|dining|restaurant</t>
   </si>
   <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
   </si>
   <si>
     <t>food|options|rule</t>
   </si>
   <si>
-    <t>roll|heaven</t>
+    <t>|roll|heaven</t>
   </si>
   <si>
     <t>sake|menu</t>
   </si>
   <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
   </si>
   <si>
     <t>selection|wine|list</t>
@@ -4663,7 +4732,10 @@
     <t>decor|boths|side|side|hall</t>
   </si>
   <si>
-    <t>band|atmosphere|jazz</t>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
   </si>
   <si>
     <t>food|diamond|balance|herbs|tomatoes|homemade</t>
@@ -4675,34 +4747,40 @@
     <t>husband|tortelini|beers|food|dish</t>
   </si>
   <si>
+    <t>|bagel</t>
+  </si>
+  <si>
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
   </si>
   <si>
     <t>dumplings|pancakes</t>
   </si>
   <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
   </si>
   <si>
     <t>price|service</t>
@@ -4711,96 +4789,105 @@
     <t>restaurant|food|course</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food|$18!-</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
+  </si>
+  <si>
+    <t>price|$3-6!-</t>
+  </si>
+  <si>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food|$18</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>price|$3-6</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines|$70+</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
     <t>place|staff|wait</t>
   </si>
   <si>
@@ -4813,7 +4900,7 @@
     <t>tuna|tartar|appetizer</t>
   </si>
   <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
   </si>
   <si>
     <t>place|service</t>
@@ -4834,15 +4921,24 @@
     <t>service|staff</t>
   </si>
   <si>
-    <t>service|place|occassion</t>
+    <t>service|place|date|occassion</t>
   </si>
   <si>
     <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
   </si>
   <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
@@ -4855,76 +4951,82 @@
     <t>ambience|service</t>
   </si>
   <si>
-    <t>nothing|atmosphere|establishment</t>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
   </si>
   <si>
     <t>prices|quality</t>
   </si>
   <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
   </si>
   <si>
     <t>place|food</t>
   </si>
   <si>
+    <t>|dishes</t>
+  </si>
+  <si>
     <t>decor|service</t>
   </si>
   <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
+    <t>svc|group|bit|esp</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|anything|chips|side|$7)</t>
+    <t>sandwiches|chips|side|$7!-</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
   </si>
   <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
   </si>
   <si>
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>sandwich|price|$24</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
+    <t>lobster|sandwich|price|$24!-</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
   </si>
   <si>
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10.</t>
-  </si>
-  <si>
-    <t>list|wine</t>
+    <t>plate|cheese|bargain|delight|$10!-</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
   </si>
   <si>
     <t>atmosphere|hesititate</t>
@@ -4933,34 +5035,31 @@
     <t>food|deal|place|self</t>
   </si>
   <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
   </si>
   <si>
     <t>staff|cafe|wish|place</t>
   </si>
   <si>
-    <t>ambience|prices|food|fact</t>
+    <t>ambience|prices|fun|food|top|fact</t>
   </si>
   <si>
     <t>experience|customer|service|restaurant</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
   </si>
   <si>
     <t>weather|table|snag</t>
@@ -4969,16 +5068,22 @@
     <t>staff|bathroom</t>
   </si>
   <si>
-    <t>patrons|closing</t>
+    <t>|patrons|closing</t>
   </si>
   <si>
     <t>staff|company|meal</t>
   </si>
   <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
     <t>area|garden|herb</t>
   </si>
   <si>
-    <t>place|points|money.</t>
+    <t>place|points</t>
   </si>
   <si>
     <t>crowd</t>
@@ -4987,13 +5092,13 @@
     <t>price|pizzas</t>
   </si>
   <si>
-    <t>money|guys|outta|money</t>
+    <t>waiter|money|guys|outta</t>
   </si>
   <si>
     <t>staff|wait</t>
   </si>
   <si>
-    <t>sandwiches</t>
+    <t>|sandwiches</t>
   </si>
   <si>
     <t>room|clerks|style|substance|folks</t>
@@ -5002,19 +5107,16 @@
     <t>lawns</t>
   </si>
   <si>
-    <t>anything|service</t>
-  </si>
-  <si>
     <t>place|prices</t>
   </si>
   <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt|100 dollar!-</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
   </si>
   <si>
     <t>crew|staff|staff</t>
@@ -5023,34 +5125,37 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
   </si>
   <si>
     <t>feature|terrace</t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
   </si>
   <si>
     <t>service|atmosphere</t>
   </si>
   <si>
-    <t>decor|prices|place</t>
+    <t>decor|prices|place|city</t>
   </si>
   <si>
     <t>management</t>
@@ -5077,10 +5182,7 @@
     <t>measures|liquers|quibbles|bill</t>
   </si>
   <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>|restaurant|nyc|gimmick|theme</t>
   </si>
   <si>
     <t>atomosphere|tables</t>
@@ -5092,16 +5194,16 @@
     <t>ceiling|room|dining</t>
   </si>
   <si>
-    <t>place|expectations|money.</t>
+    <t>place|expectations</t>
   </si>
   <si>
     <t>food|wines|selecion|prices</t>
   </si>
   <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
   </si>
   <si>
     <t>design|atmosphere</t>
@@ -5110,7 +5212,7 @@
     <t>bottles|wine</t>
   </si>
   <si>
-    <t>opera|everything|jukebox|strokes</t>
+    <t>|opera|jukebox|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5125,13 +5227,16 @@
     <t>indoor</t>
   </si>
   <si>
+    <t>|decor</t>
+  </si>
+  <si>
     <t>food|prices</t>
   </si>
   <si>
     <t>food|tasting|prices|prices</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>music|food|prices|prices|service</t>
@@ -5143,7 +5248,7 @@
     <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
   </si>
   <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
   </si>
   <si>
     <t>side|service|food</t>
@@ -5155,13 +5260,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20</t>
+    <t>sushi|$20!-</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15....</t>
+    <t>fish|chips|$15!-</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5170,25 +5275,34 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
+    <t>meal|$60!-</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet|$400.00!-</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>guacamole|plate|$11!-</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
   </si>
   <si>
     <t>food|price|people|people</t>
@@ -5197,13 +5311,16 @@
     <t>booths|eachother|couple</t>
   </si>
   <si>
-    <t>prices|view</t>
+    <t>|prices|view</t>
   </si>
   <si>
     <t>bathroom|mens</t>
   </si>
   <si>
-    <t>price|prestige</t>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
   </si>
   <si>
     <t>restaurant|food</t>
@@ -5218,64 +5335,61 @@
     <t>place|value</t>
   </si>
   <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish|$10!-</t>
   </si>
   <si>
     <t>martinis</t>
   </si>
   <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
   </si>
   <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>diners|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>dinner|$55</t>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|service|$500!-</t>
+  </si>
+  <si>
+    <t>|diners</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>dinner|$55!-</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
-  </si>
-  <si>
-    <t>money|money.</t>
+    <t>|bill|portion</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25),</t>
-  </si>
-  <si>
-    <t>something|food|$</t>
+    <t>restaurant|feel|price|place|$25!-</t>
+  </si>
+  <si>
+    <t>food|$!-</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5284,25 +5398,28 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>brasserie|opinion|restaurants</t>
-  </si>
-  <si>
-    <t>deal|party|$29</t>
-  </si>
-  <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>service|$500</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
-  </si>
-  <si>
-    <t>bite|salmon|restaurants|salmon|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
+  </si>
+  <si>
+    <t>deal|party|$29!-</t>
+  </si>
+  <si>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
+  </si>
+  <si>
+    <t>bite|salmon|restaurants|salmon|$24!-</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5311,13 +5428,13 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5832,10 +5949,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1089</v>
+        <v>1467</v>
       </c>
       <c r="H2" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5858,10 +5975,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
       <c r="H3" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5881,13 +5998,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1453</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5910,10 +6027,10 @@
         <v>1338</v>
       </c>
       <c r="G5" t="s">
-        <v>1454</v>
+        <v>1469</v>
       </c>
       <c r="H5" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5936,10 +6053,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1455</v>
+        <v>1470</v>
       </c>
       <c r="H6" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5962,10 +6079,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="H7" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5988,10 +6105,10 @@
         <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1457</v>
+        <v>1472</v>
       </c>
       <c r="H8" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6014,10 +6131,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="H9" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6040,10 +6157,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="H10" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6066,10 +6183,10 @@
         <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="H11" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6092,10 +6209,10 @@
         <v>1343</v>
       </c>
       <c r="G12" t="s">
-        <v>1461</v>
+        <v>1476</v>
       </c>
       <c r="H12" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6115,13 +6232,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G13" t="s">
-        <v>1462</v>
+        <v>1477</v>
       </c>
       <c r="H13" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6141,13 +6258,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1463</v>
+        <v>1478</v>
       </c>
       <c r="H14" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6167,13 +6284,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1294</v>
+        <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1464</v>
+        <v>1479</v>
       </c>
       <c r="H15" t="s">
-        <v>1775</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6196,10 +6313,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1465</v>
+        <v>1480</v>
       </c>
       <c r="H16" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6222,10 +6339,10 @@
         <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1466</v>
+        <v>1481</v>
       </c>
       <c r="H17" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6245,13 +6362,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1276</v>
+        <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>947</v>
+        <v>1482</v>
       </c>
       <c r="H18" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6271,7 +6388,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6297,7 +6414,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6323,7 +6440,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6343,13 +6460,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1467</v>
+        <v>1483</v>
       </c>
       <c r="H22" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6369,13 +6486,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="H23" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6401,7 +6518,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6424,10 +6541,10 @@
         <v>1347</v>
       </c>
       <c r="G25" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="H25" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6447,13 +6564,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G26" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="H26" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6479,7 +6596,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6499,13 +6616,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G28" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="H28" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6525,13 +6642,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G29" t="s">
-        <v>1472</v>
+        <v>1488</v>
       </c>
       <c r="H29" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6554,10 +6671,10 @@
         <v>1337</v>
       </c>
       <c r="G30" t="s">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="H30" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6577,13 +6694,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="H31" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6603,13 +6720,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G32" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="H32" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6635,7 +6752,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6661,7 +6778,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6681,13 +6798,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G35" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="H35" t="s">
-        <v>1777</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6707,13 +6824,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G36" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="H36" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6739,7 +6856,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6762,10 +6879,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>933</v>
+        <v>1494</v>
       </c>
       <c r="H38" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6785,13 +6902,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G39" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="H39" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6811,13 +6928,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G40" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="H40" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6837,13 +6954,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G41" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="H41" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6863,13 +6980,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G42" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="H42" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6892,10 +7009,10 @@
         <v>1337</v>
       </c>
       <c r="G43" t="s">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="H43" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6921,7 +7038,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6941,13 +7058,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="G45" t="s">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="H45" t="s">
-        <v>1778</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6967,13 +7084,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1343</v>
+        <v>1361</v>
       </c>
       <c r="G46" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
       <c r="H46" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6996,10 +7113,10 @@
         <v>1338</v>
       </c>
       <c r="G47" t="s">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="H47" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7025,7 +7142,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7048,10 +7165,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1486</v>
+        <v>1503</v>
       </c>
       <c r="H49" t="s">
-        <v>1780</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7071,13 +7188,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G50" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="H50" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7097,13 +7214,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="G51" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="H51" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7123,13 +7240,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G52" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="H52" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7152,10 +7269,10 @@
         <v>1345</v>
       </c>
       <c r="G53" t="s">
-        <v>1490</v>
+        <v>1507</v>
       </c>
       <c r="H53" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7175,13 +7292,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G54" t="s">
-        <v>1491</v>
+        <v>1508</v>
       </c>
       <c r="H54" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7201,13 +7318,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="G55" t="s">
-        <v>1492</v>
+        <v>1509</v>
       </c>
       <c r="H55" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7227,13 +7344,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G56" t="s">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="H56" t="s">
-        <v>1782</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7253,13 +7370,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G57" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="H57" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7279,13 +7396,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G58" t="s">
-        <v>1495</v>
+        <v>1512</v>
       </c>
       <c r="H58" t="s">
-        <v>1783</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7305,13 +7422,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="G59" t="s">
-        <v>1496</v>
+        <v>1513</v>
       </c>
       <c r="H59" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7331,13 +7448,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G60" t="s">
-        <v>1497</v>
+        <v>1514</v>
       </c>
       <c r="H60" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7360,10 +7477,10 @@
         <v>1338</v>
       </c>
       <c r="G61" t="s">
-        <v>1498</v>
+        <v>1515</v>
       </c>
       <c r="H61" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7383,13 +7500,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="G62" t="s">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="H62" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7412,10 +7529,10 @@
         <v>1342</v>
       </c>
       <c r="G63" t="s">
-        <v>1500</v>
+        <v>1517</v>
       </c>
       <c r="H63" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7438,10 +7555,10 @@
         <v>1338</v>
       </c>
       <c r="G64" t="s">
-        <v>1501</v>
+        <v>1518</v>
       </c>
       <c r="H64" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7467,7 +7584,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7493,7 +7610,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7516,10 +7633,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>1519</v>
       </c>
       <c r="H67" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7539,13 +7656,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>989</v>
+        <v>1520</v>
       </c>
       <c r="H68" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7565,13 +7682,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="G69" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="H69" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7591,13 +7708,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G70" t="s">
-        <v>1503</v>
+        <v>1522</v>
       </c>
       <c r="H70" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7617,13 +7734,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G71" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="H71" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7643,13 +7760,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1372</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1524</v>
       </c>
       <c r="H72" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7675,7 +7792,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7695,13 +7812,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G74" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="H74" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7724,10 +7841,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>985</v>
+        <v>1526</v>
       </c>
       <c r="H75" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7747,13 +7864,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1373</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1527</v>
       </c>
       <c r="H76" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7773,13 +7890,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1337</v>
+        <v>1374</v>
       </c>
       <c r="G77" t="s">
-        <v>1506</v>
+        <v>1528</v>
       </c>
       <c r="H77" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7802,10 +7919,10 @@
         <v>1337</v>
       </c>
       <c r="G78" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H78" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7828,10 +7945,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1508</v>
+        <v>1530</v>
       </c>
       <c r="H79" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7857,7 +7974,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7877,13 +7994,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G81" t="s">
-        <v>1509</v>
+        <v>1531</v>
       </c>
       <c r="H81" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7909,7 +8026,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1783</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7935,7 +8052,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7955,13 +8072,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1337</v>
+        <v>1374</v>
       </c>
       <c r="G84" t="s">
-        <v>1510</v>
+        <v>1532</v>
       </c>
       <c r="H84" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7984,10 +8101,10 @@
         <v>1338</v>
       </c>
       <c r="G85" t="s">
-        <v>1511</v>
+        <v>1533</v>
       </c>
       <c r="H85" t="s">
-        <v>1785</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8010,10 +8127,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1512</v>
+        <v>1534</v>
       </c>
       <c r="H86" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8033,13 +8150,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G87" t="s">
-        <v>1513</v>
+        <v>1535</v>
       </c>
       <c r="H87" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8059,13 +8176,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G88" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H88" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8085,13 +8202,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1338</v>
+        <v>1364</v>
       </c>
       <c r="G89" t="s">
-        <v>1515</v>
+        <v>1537</v>
       </c>
       <c r="H89" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8111,13 +8228,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G90" t="s">
-        <v>1516</v>
+        <v>1538</v>
       </c>
       <c r="H90" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8137,13 +8254,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="G91" t="s">
-        <v>1517</v>
+        <v>1539</v>
       </c>
       <c r="H91" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8163,13 +8280,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="G92" t="s">
-        <v>1518</v>
+        <v>1540</v>
       </c>
       <c r="H92" t="s">
-        <v>1786</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8189,13 +8306,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1352</v>
+        <v>1379</v>
       </c>
       <c r="G93" t="s">
-        <v>1519</v>
+        <v>1541</v>
       </c>
       <c r="H93" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8215,13 +8332,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G94" t="s">
-        <v>1520</v>
+        <v>1542</v>
       </c>
       <c r="H94" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8241,13 +8358,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="G95" t="s">
-        <v>1521</v>
+        <v>1543</v>
       </c>
       <c r="H95" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8270,10 +8387,10 @@
         <v>1338</v>
       </c>
       <c r="G96" t="s">
-        <v>1522</v>
+        <v>1544</v>
       </c>
       <c r="H96" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8293,13 +8410,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
       <c r="G97" t="s">
-        <v>1523</v>
+        <v>1545</v>
       </c>
       <c r="H97" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8319,13 +8436,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G98" t="s">
-        <v>1524</v>
+        <v>1546</v>
       </c>
       <c r="H98" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8345,13 +8462,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G99" t="s">
-        <v>1525</v>
+        <v>1547</v>
       </c>
       <c r="H99" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8374,10 +8491,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1526</v>
+        <v>1548</v>
       </c>
       <c r="H100" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8397,13 +8514,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G101" t="s">
-        <v>1527</v>
+        <v>1549</v>
       </c>
       <c r="H101" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8426,10 +8543,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1528</v>
+        <v>1550</v>
       </c>
       <c r="H102" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8455,7 +8572,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8475,13 +8592,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G104" t="s">
-        <v>1529</v>
+        <v>1551</v>
       </c>
       <c r="H104" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8507,7 +8624,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8530,10 +8647,10 @@
         <v>1338</v>
       </c>
       <c r="G106" t="s">
-        <v>1530</v>
+        <v>1552</v>
       </c>
       <c r="H106" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8553,13 +8670,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
       <c r="G107" t="s">
-        <v>1531</v>
+        <v>1553</v>
       </c>
       <c r="H107" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8579,13 +8696,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G108" t="s">
-        <v>1532</v>
+        <v>1554</v>
       </c>
       <c r="H108" t="s">
-        <v>1787</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8608,10 +8725,10 @@
         <v>1285</v>
       </c>
       <c r="G109" t="s">
-        <v>1533</v>
+        <v>1555</v>
       </c>
       <c r="H109" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8637,7 +8754,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8663,7 +8780,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8683,13 +8800,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G112" t="s">
-        <v>1534</v>
+        <v>1556</v>
       </c>
       <c r="H112" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8709,13 +8826,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1285</v>
+        <v>1373</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>1557</v>
       </c>
       <c r="H113" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8741,7 +8858,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8761,13 +8878,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G115" t="s">
-        <v>1532</v>
+        <v>1554</v>
       </c>
       <c r="H115" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8787,13 +8904,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1348</v>
+        <v>1382</v>
       </c>
       <c r="G116" t="s">
-        <v>1535</v>
+        <v>1558</v>
       </c>
       <c r="H116" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8813,13 +8930,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="G117" t="s">
-        <v>1536</v>
+        <v>1559</v>
       </c>
       <c r="H117" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8839,13 +8956,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1353</v>
+        <v>1384</v>
       </c>
       <c r="G118" t="s">
-        <v>1537</v>
+        <v>1560</v>
       </c>
       <c r="H118" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8865,13 +8982,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
       <c r="G119" t="s">
-        <v>1538</v>
+        <v>1561</v>
       </c>
       <c r="H119" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8891,13 +9008,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="G120" t="s">
-        <v>1539</v>
+        <v>1562</v>
       </c>
       <c r="H120" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8917,13 +9034,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="G121" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
       <c r="H121" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8949,7 +9066,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8969,13 +9086,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G123" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="H123" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9001,7 +9118,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9024,10 +9141,10 @@
         <v>1338</v>
       </c>
       <c r="G125" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="H125" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9050,10 +9167,10 @@
         <v>1338</v>
       </c>
       <c r="G126" t="s">
-        <v>1543</v>
+        <v>1566</v>
       </c>
       <c r="H126" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9076,10 +9193,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="H127" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9105,7 +9222,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9125,13 +9242,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1337</v>
+        <v>1386</v>
       </c>
       <c r="G129" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="H129" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9151,13 +9268,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="G130" t="s">
-        <v>1546</v>
+        <v>1569</v>
       </c>
       <c r="H130" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9177,13 +9294,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="G131" t="s">
-        <v>1547</v>
+        <v>1570</v>
       </c>
       <c r="H131" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9209,7 +9326,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9235,7 +9352,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9255,13 +9372,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G134" t="s">
-        <v>1548</v>
+        <v>1571</v>
       </c>
       <c r="H134" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9281,13 +9398,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G135" t="s">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="H135" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9307,13 +9424,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G136" t="s">
-        <v>1046</v>
+        <v>1573</v>
       </c>
       <c r="H136" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9333,13 +9450,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G137" t="s">
-        <v>1550</v>
+        <v>1574</v>
       </c>
       <c r="H137" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9365,7 +9482,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9385,13 +9502,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1551</v>
+        <v>1575</v>
       </c>
       <c r="H139" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9411,13 +9528,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="G140" t="s">
-        <v>1552</v>
+        <v>1576</v>
       </c>
       <c r="H140" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9440,10 +9557,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1050</v>
+        <v>1577</v>
       </c>
       <c r="H141" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9463,13 +9580,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1553</v>
+        <v>1578</v>
       </c>
       <c r="H142" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9489,13 +9606,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="G143" t="s">
-        <v>1554</v>
+        <v>1579</v>
       </c>
       <c r="H143" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9515,13 +9632,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="G144" t="s">
-        <v>1555</v>
+        <v>1580</v>
       </c>
       <c r="H144" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9541,13 +9658,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="G145" t="s">
-        <v>1556</v>
+        <v>1581</v>
       </c>
       <c r="H145" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9567,13 +9684,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G146" t="s">
-        <v>1557</v>
+        <v>1582</v>
       </c>
       <c r="H146" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9596,10 +9713,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>931</v>
+        <v>1583</v>
       </c>
       <c r="H147" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9619,13 +9736,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="G148" t="s">
-        <v>1558</v>
+        <v>1584</v>
       </c>
       <c r="H148" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9648,10 +9765,10 @@
         <v>1338</v>
       </c>
       <c r="G149" t="s">
-        <v>1559</v>
+        <v>1585</v>
       </c>
       <c r="H149" t="s">
-        <v>1788</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9671,13 +9788,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="G150" t="s">
-        <v>1560</v>
+        <v>1586</v>
       </c>
       <c r="H150" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9697,13 +9814,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1385</v>
+        <v>1396</v>
       </c>
       <c r="G151" t="s">
-        <v>1561</v>
+        <v>1587</v>
       </c>
       <c r="H151" t="s">
-        <v>1789</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9726,10 +9843,10 @@
         <v>1337</v>
       </c>
       <c r="G152" t="s">
-        <v>1562</v>
+        <v>1588</v>
       </c>
       <c r="H152" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9749,13 +9866,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="G153" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
       <c r="H153" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9775,13 +9892,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G154" t="s">
-        <v>1564</v>
+        <v>1590</v>
       </c>
       <c r="H154" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9801,13 +9918,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G155" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="H155" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9833,7 +9950,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9853,13 +9970,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G157" t="s">
-        <v>1566</v>
+        <v>1592</v>
       </c>
       <c r="H157" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9879,13 +9996,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G158" t="s">
-        <v>1567</v>
+        <v>1593</v>
       </c>
       <c r="H158" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9911,7 +10028,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9937,7 +10054,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9963,7 +10080,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9989,7 +10106,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10012,10 +10129,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>976</v>
+        <v>1594</v>
       </c>
       <c r="H163" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10041,7 +10158,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10061,13 +10178,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G165" t="s">
-        <v>1568</v>
+        <v>1595</v>
       </c>
       <c r="H165" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10090,10 +10207,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1569</v>
+        <v>1596</v>
       </c>
       <c r="H166" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10113,13 +10230,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G167" t="s">
-        <v>1570</v>
+        <v>1597</v>
       </c>
       <c r="H167" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10139,13 +10256,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1388</v>
+        <v>1398</v>
       </c>
       <c r="G168" t="s">
-        <v>1571</v>
+        <v>1598</v>
       </c>
       <c r="H168" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10171,7 +10288,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10191,13 +10308,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G170" t="s">
-        <v>1572</v>
+        <v>1599</v>
       </c>
       <c r="H170" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10217,13 +10334,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G171" t="s">
-        <v>1573</v>
+        <v>1600</v>
       </c>
       <c r="H171" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10243,13 +10360,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1574</v>
+        <v>1601</v>
       </c>
       <c r="H172" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10272,10 +10389,10 @@
         <v>1338</v>
       </c>
       <c r="G173" t="s">
-        <v>1575</v>
+        <v>1602</v>
       </c>
       <c r="H173" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10295,13 +10412,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G174" t="s">
-        <v>1576</v>
+        <v>1603</v>
       </c>
       <c r="H174" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10324,10 +10441,10 @@
         <v>1337</v>
       </c>
       <c r="G175" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H175" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10347,13 +10464,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1368</v>
       </c>
       <c r="G176" t="s">
-        <v>1460</v>
+        <v>1604</v>
       </c>
       <c r="H176" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10373,13 +10490,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G177" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H177" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10399,13 +10516,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G178" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H178" t="s">
-        <v>1790</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10425,13 +10542,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="G179" t="s">
-        <v>1577</v>
+        <v>1605</v>
       </c>
       <c r="H179" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10451,13 +10568,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G180" t="s">
-        <v>1578</v>
+        <v>1606</v>
       </c>
       <c r="H180" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10477,13 +10594,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="G181" t="s">
-        <v>1579</v>
+        <v>1607</v>
       </c>
       <c r="H181" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10503,13 +10620,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="G182" t="s">
-        <v>1580</v>
+        <v>1608</v>
       </c>
       <c r="H182" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10535,7 +10652,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10558,10 +10675,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1581</v>
+        <v>1609</v>
       </c>
       <c r="H184" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10581,13 +10698,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G185" t="s">
-        <v>1582</v>
+        <v>1610</v>
       </c>
       <c r="H185" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10613,7 +10730,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10639,7 +10756,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10665,7 +10782,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10691,7 +10808,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10717,7 +10834,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10737,13 +10854,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="G191" t="s">
-        <v>1583</v>
+        <v>1611</v>
       </c>
       <c r="H191" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10766,10 +10883,10 @@
         <v>1342</v>
       </c>
       <c r="G192" t="s">
-        <v>1584</v>
+        <v>1612</v>
       </c>
       <c r="H192" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10789,13 +10906,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G193" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H193" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10818,10 +10935,10 @@
         <v>1338</v>
       </c>
       <c r="G194" t="s">
-        <v>1585</v>
+        <v>1613</v>
       </c>
       <c r="H194" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10847,7 +10964,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10873,7 +10990,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10899,7 +11016,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10919,7 +11036,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10939,13 +11056,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="G199" t="s">
-        <v>1586</v>
+        <v>1614</v>
       </c>
       <c r="H199" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10971,7 +11088,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10991,13 +11108,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G201" t="s">
-        <v>1587</v>
+        <v>1615</v>
       </c>
       <c r="H201" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11017,13 +11134,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1393</v>
+        <v>1402</v>
       </c>
       <c r="G202" t="s">
-        <v>1588</v>
+        <v>1616</v>
       </c>
       <c r="H202" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11049,7 +11166,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11072,10 +11189,10 @@
         <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1589</v>
+        <v>1617</v>
       </c>
       <c r="H204" t="s">
-        <v>1787</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11095,13 +11212,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="G205" t="s">
-        <v>1590</v>
+        <v>1618</v>
       </c>
       <c r="H205" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11121,13 +11238,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="G206" t="s">
-        <v>1591</v>
+        <v>1619</v>
       </c>
       <c r="H206" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11147,13 +11264,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G207" t="s">
-        <v>1592</v>
+        <v>1620</v>
       </c>
       <c r="H207" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11176,10 +11293,10 @@
         <v>1345</v>
       </c>
       <c r="G208" t="s">
-        <v>1593</v>
+        <v>1621</v>
       </c>
       <c r="H208" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11199,13 +11316,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G209" t="s">
-        <v>1594</v>
+        <v>1622</v>
       </c>
       <c r="H209" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11228,10 +11345,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1566</v>
+        <v>1623</v>
       </c>
       <c r="H210" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11251,13 +11368,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="G211" t="s">
-        <v>1595</v>
+        <v>1624</v>
       </c>
       <c r="H211" t="s">
-        <v>1791</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11277,13 +11394,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G212" t="s">
-        <v>1596</v>
+        <v>1625</v>
       </c>
       <c r="H212" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11309,7 +11426,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11329,13 +11446,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1396</v>
+        <v>1405</v>
       </c>
       <c r="G214" t="s">
-        <v>1597</v>
+        <v>1626</v>
       </c>
       <c r="H214" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11355,13 +11472,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G215" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="H215" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11381,13 +11498,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1397</v>
+        <v>1406</v>
       </c>
       <c r="G216" t="s">
-        <v>1599</v>
+        <v>1628</v>
       </c>
       <c r="H216" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11410,10 +11527,10 @@
         <v>1347</v>
       </c>
       <c r="G217" t="s">
-        <v>1600</v>
+        <v>1629</v>
       </c>
       <c r="H217" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11433,13 +11550,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
       <c r="G218" t="s">
-        <v>1601</v>
+        <v>1630</v>
       </c>
       <c r="H218" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11459,13 +11576,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G219" t="s">
-        <v>1602</v>
+        <v>1631</v>
       </c>
       <c r="H219" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11485,13 +11602,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="G220" t="s">
-        <v>1603</v>
+        <v>1632</v>
       </c>
       <c r="H220" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11511,13 +11628,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="G221" t="s">
-        <v>1604</v>
+        <v>1633</v>
       </c>
       <c r="H221" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11537,13 +11654,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G222" t="s">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="H222" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11563,13 +11680,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="G223" t="s">
-        <v>1606</v>
+        <v>1635</v>
       </c>
       <c r="H223" t="s">
-        <v>1792</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11589,13 +11706,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1401</v>
+        <v>1410</v>
       </c>
       <c r="G224" t="s">
-        <v>1607</v>
+        <v>1636</v>
       </c>
       <c r="H224" t="s">
-        <v>1793</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11621,7 +11738,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11644,10 +11761,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>1583</v>
       </c>
       <c r="H226" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11667,13 +11784,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1285</v>
+        <v>1389</v>
       </c>
       <c r="G227" t="s">
-        <v>1089</v>
+        <v>1637</v>
       </c>
       <c r="H227" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11696,10 +11813,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1608</v>
+        <v>1638</v>
       </c>
       <c r="H228" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11725,7 +11842,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11745,13 +11862,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1526</v>
+        <v>1639</v>
       </c>
       <c r="H230" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11774,10 +11891,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>947</v>
+        <v>1640</v>
       </c>
       <c r="H231" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11800,10 +11917,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1609</v>
+        <v>1641</v>
       </c>
       <c r="H232" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11823,13 +11940,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G233" t="s">
-        <v>1610</v>
+        <v>1642</v>
       </c>
       <c r="H233" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11849,13 +11966,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G234" t="s">
-        <v>1611</v>
+        <v>1643</v>
       </c>
       <c r="H234" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11878,10 +11995,10 @@
         <v>1347</v>
       </c>
       <c r="G235" t="s">
-        <v>1612</v>
+        <v>1644</v>
       </c>
       <c r="H235" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11901,13 +12018,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1402</v>
+        <v>1373</v>
       </c>
       <c r="G236" t="s">
-        <v>1613</v>
+        <v>1645</v>
       </c>
       <c r="H236" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11927,13 +12044,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1276</v>
+        <v>1397</v>
       </c>
       <c r="G237" t="s">
-        <v>931</v>
+        <v>1646</v>
       </c>
       <c r="H237" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11953,13 +12070,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G238" t="s">
-        <v>1614</v>
+        <v>1647</v>
       </c>
       <c r="H238" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11979,13 +12096,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G239" t="s">
-        <v>1615</v>
+        <v>1648</v>
       </c>
       <c r="H239" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12005,13 +12122,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="G240" t="s">
-        <v>1616</v>
+        <v>1649</v>
       </c>
       <c r="H240" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12031,13 +12148,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G241" t="s">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="H241" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12057,13 +12174,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="G242" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="H242" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12089,7 +12206,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12115,7 +12232,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12141,7 +12258,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12167,7 +12284,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12186,8 +12303,14 @@
       <c r="E247" t="s">
         <v>1310</v>
       </c>
+      <c r="F247" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1652</v>
+      </c>
       <c r="H247" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12207,13 +12330,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="G248" t="s">
-        <v>1619</v>
+        <v>1653</v>
       </c>
       <c r="H248" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12233,13 +12356,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G249" t="s">
-        <v>1620</v>
+        <v>1654</v>
       </c>
       <c r="H249" t="s">
-        <v>1775</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12262,10 +12385,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>959</v>
+        <v>1655</v>
       </c>
       <c r="H250" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12288,10 +12411,10 @@
         <v>1347</v>
       </c>
       <c r="G251" t="s">
-        <v>1621</v>
+        <v>1656</v>
       </c>
       <c r="H251" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12317,7 +12440,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12337,13 +12460,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G253" t="s">
-        <v>1622</v>
+        <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12369,7 +12492,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12389,13 +12512,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="G255" t="s">
-        <v>1623</v>
+        <v>1657</v>
       </c>
       <c r="H255" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12418,10 +12541,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1624</v>
+        <v>1658</v>
       </c>
       <c r="H256" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12444,10 +12567,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1452</v>
+        <v>1468</v>
       </c>
       <c r="H257" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12467,13 +12590,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1407</v>
+        <v>1415</v>
       </c>
       <c r="G258" t="s">
-        <v>1625</v>
+        <v>1659</v>
       </c>
       <c r="H258" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12493,13 +12616,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="G259" t="s">
-        <v>1626</v>
+        <v>1660</v>
       </c>
       <c r="H259" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12522,10 +12645,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1624</v>
+        <v>1658</v>
       </c>
       <c r="H260" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12551,7 +12674,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12577,7 +12700,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12597,13 +12720,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1360</v>
+        <v>1416</v>
       </c>
       <c r="G263" t="s">
-        <v>1627</v>
+        <v>1661</v>
       </c>
       <c r="H263" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12629,7 +12752,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12649,13 +12772,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1408</v>
+        <v>1417</v>
       </c>
       <c r="G265" t="s">
-        <v>1628</v>
+        <v>1662</v>
       </c>
       <c r="H265" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12675,13 +12798,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1409</v>
+        <v>1418</v>
       </c>
       <c r="G266" t="s">
-        <v>1629</v>
+        <v>1663</v>
       </c>
       <c r="H266" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12701,13 +12824,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G267" t="s">
-        <v>1630</v>
+        <v>1664</v>
       </c>
       <c r="H267" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12727,13 +12850,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1374</v>
+        <v>1419</v>
       </c>
       <c r="G268" t="s">
-        <v>1631</v>
+        <v>1665</v>
       </c>
       <c r="H268" t="s">
-        <v>1780</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12753,13 +12876,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G269" t="s">
-        <v>1632</v>
+        <v>1666</v>
       </c>
       <c r="H269" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12779,13 +12902,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1355</v>
       </c>
       <c r="G270" t="s">
-        <v>1633</v>
+        <v>1667</v>
       </c>
       <c r="H270" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12805,13 +12928,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G271" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
       <c r="H271" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12831,13 +12954,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="G272" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="H272" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12860,10 +12983,10 @@
         <v>1345</v>
       </c>
       <c r="G273" t="s">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="H273" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12883,13 +13006,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G274" t="s">
-        <v>1637</v>
+        <v>1671</v>
       </c>
       <c r="H274" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12909,13 +13032,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1411</v>
+        <v>1421</v>
       </c>
       <c r="G275" t="s">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="H275" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12938,10 +13061,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1639</v>
+        <v>1673</v>
       </c>
       <c r="H276" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12964,10 +13087,10 @@
         <v>1338</v>
       </c>
       <c r="G277" t="s">
-        <v>1640</v>
+        <v>1674</v>
       </c>
       <c r="H277" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12987,13 +13110,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1412</v>
+        <v>1368</v>
       </c>
       <c r="G278" t="s">
-        <v>1641</v>
+        <v>1610</v>
       </c>
       <c r="H278" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13012,8 +13135,14 @@
       <c r="E279" t="s">
         <v>1276</v>
       </c>
+      <c r="F279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1022</v>
+      </c>
       <c r="H279" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13033,13 +13162,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1642</v>
+        <v>1675</v>
       </c>
       <c r="H280" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13059,13 +13188,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1278</v>
+        <v>1383</v>
       </c>
       <c r="G281" t="s">
-        <v>1643</v>
+        <v>1676</v>
       </c>
       <c r="H281" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13085,13 +13214,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="G282" t="s">
-        <v>1644</v>
+        <v>1677</v>
       </c>
       <c r="H282" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13117,7 +13246,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13137,13 +13266,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="G284" t="s">
-        <v>1645</v>
+        <v>1678</v>
       </c>
       <c r="H284" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13163,13 +13292,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="G285" t="s">
-        <v>1646</v>
+        <v>1679</v>
       </c>
       <c r="H285" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13189,13 +13318,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="G286" t="s">
-        <v>1647</v>
+        <v>1680</v>
       </c>
       <c r="H286" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13221,7 +13350,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13241,13 +13370,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1400</v>
+        <v>1425</v>
       </c>
       <c r="G288" t="s">
-        <v>1648</v>
+        <v>1681</v>
       </c>
       <c r="H288" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13267,13 +13396,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1416</v>
+        <v>1426</v>
       </c>
       <c r="G289" t="s">
-        <v>1649</v>
+        <v>1682</v>
       </c>
       <c r="H289" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13293,13 +13422,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G290" t="s">
-        <v>1650</v>
+        <v>1683</v>
       </c>
       <c r="H290" t="s">
-        <v>1780</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13322,10 +13451,10 @@
         <v>1342</v>
       </c>
       <c r="G291" t="s">
-        <v>1651</v>
+        <v>1684</v>
       </c>
       <c r="H291" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13345,13 +13474,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1417</v>
+        <v>1427</v>
       </c>
       <c r="G292" t="s">
-        <v>1652</v>
+        <v>1685</v>
       </c>
       <c r="H292" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13374,10 +13503,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1199</v>
+        <v>1686</v>
       </c>
       <c r="H293" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13403,7 +13532,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13423,13 +13552,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="G295" t="s">
-        <v>947</v>
+        <v>1687</v>
       </c>
       <c r="H295" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13455,7 +13584,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13475,13 +13604,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="G297" t="s">
-        <v>1653</v>
+        <v>1688</v>
       </c>
       <c r="H297" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13501,13 +13630,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1418</v>
+        <v>1373</v>
       </c>
       <c r="G298" t="s">
-        <v>1654</v>
+        <v>1689</v>
       </c>
       <c r="H298" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13533,7 +13662,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13552,8 +13681,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13576,10 +13711,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1655</v>
+        <v>1690</v>
       </c>
       <c r="H301" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13602,10 +13737,10 @@
         <v>1345</v>
       </c>
       <c r="G302" t="s">
-        <v>1656</v>
+        <v>1691</v>
       </c>
       <c r="H302" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13625,13 +13760,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="G303" t="s">
-        <v>1657</v>
+        <v>1692</v>
       </c>
       <c r="H303" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13657,7 +13792,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13683,7 +13818,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13703,13 +13838,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="G306" t="s">
-        <v>1658</v>
+        <v>1693</v>
       </c>
       <c r="H306" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13735,7 +13870,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13758,10 +13893,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1659</v>
+        <v>1694</v>
       </c>
       <c r="H308" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13781,13 +13916,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="G309" t="s">
-        <v>1660</v>
+        <v>1695</v>
       </c>
       <c r="H309" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13813,7 +13948,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13836,10 +13971,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1661</v>
+        <v>1696</v>
       </c>
       <c r="H311" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13865,7 +14000,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13885,13 +14020,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1662</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13917,7 +14052,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13937,13 +14072,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="G315" t="s">
-        <v>1663</v>
+        <v>1697</v>
       </c>
       <c r="H315" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13963,13 +14098,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="G316" t="s">
-        <v>1664</v>
+        <v>1698</v>
       </c>
       <c r="H316" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13995,7 +14130,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14021,7 +14156,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14040,8 +14175,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14067,7 +14208,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14087,13 +14228,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1337</v>
+        <v>1431</v>
       </c>
       <c r="G321" t="s">
-        <v>1665</v>
+        <v>1699</v>
       </c>
       <c r="H321" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14113,13 +14254,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G322" t="s">
-        <v>1666</v>
+        <v>1700</v>
       </c>
       <c r="H322" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14139,13 +14280,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1422</v>
+        <v>1432</v>
       </c>
       <c r="G323" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
       <c r="H323" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14165,13 +14306,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G324" t="s">
-        <v>1668</v>
+        <v>1702</v>
       </c>
       <c r="H324" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14197,7 +14338,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14223,7 +14364,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14243,13 +14384,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1423</v>
+        <v>1433</v>
       </c>
       <c r="G327" t="s">
-        <v>1669</v>
+        <v>1703</v>
       </c>
       <c r="H327" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14269,13 +14410,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1387</v>
+        <v>1434</v>
       </c>
       <c r="G328" t="s">
-        <v>1670</v>
+        <v>1704</v>
       </c>
       <c r="H328" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14295,13 +14436,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1424</v>
+        <v>1435</v>
       </c>
       <c r="G329" t="s">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="H329" t="s">
-        <v>1794</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14321,13 +14462,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
       <c r="G330" t="s">
-        <v>1672</v>
+        <v>1706</v>
       </c>
       <c r="H330" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14347,13 +14488,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="G331" t="s">
-        <v>1673</v>
+        <v>1707</v>
       </c>
       <c r="H331" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14373,13 +14514,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G332" t="s">
-        <v>1674</v>
+        <v>1708</v>
       </c>
       <c r="H332" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14402,10 +14543,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>931</v>
+        <v>1583</v>
       </c>
       <c r="H333" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14428,10 +14569,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1180</v>
+        <v>1709</v>
       </c>
       <c r="H334" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14451,13 +14592,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1278</v>
+        <v>1353</v>
       </c>
       <c r="G335" t="s">
-        <v>1675</v>
+        <v>1710</v>
       </c>
       <c r="H335" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14477,13 +14618,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="G336" t="s">
-        <v>1676</v>
+        <v>1711</v>
       </c>
       <c r="H336" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14506,10 +14647,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1677</v>
+        <v>1712</v>
       </c>
       <c r="H337" t="s">
-        <v>1779</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14529,13 +14670,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="G338" t="s">
-        <v>1678</v>
+        <v>1713</v>
       </c>
       <c r="H338" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14561,7 +14702,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14584,10 +14725,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1679</v>
+        <v>1714</v>
       </c>
       <c r="H340" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14610,10 +14751,10 @@
         <v>1345</v>
       </c>
       <c r="G341" t="s">
-        <v>1680</v>
+        <v>1715</v>
       </c>
       <c r="H341" t="s">
-        <v>1795</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14639,7 +14780,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14659,13 +14800,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="G343" t="s">
-        <v>1681</v>
+        <v>1716</v>
       </c>
       <c r="H343" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14685,13 +14826,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="G344" t="s">
-        <v>1682</v>
+        <v>1717</v>
       </c>
       <c r="H344" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14711,13 +14852,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="G345" t="s">
-        <v>1683</v>
+        <v>1718</v>
       </c>
       <c r="H345" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14743,7 +14884,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14763,13 +14904,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1417</v>
+        <v>1427</v>
       </c>
       <c r="G347" t="s">
-        <v>1684</v>
+        <v>1719</v>
       </c>
       <c r="H347" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14788,8 +14929,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14815,7 +14962,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14835,13 +14982,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="G350" t="s">
-        <v>1685</v>
+        <v>1720</v>
       </c>
       <c r="H350" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14864,10 +15011,10 @@
         <v>1345</v>
       </c>
       <c r="G351" t="s">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="H351" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14887,13 +15034,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="G352" t="s">
-        <v>1686</v>
+        <v>1721</v>
       </c>
       <c r="H352" t="s">
-        <v>1783</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14913,13 +15060,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
       <c r="G353" t="s">
-        <v>1687</v>
+        <v>1722</v>
       </c>
       <c r="H353" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14938,14 +15085,8 @@
       <c r="E354" t="s">
         <v>1276</v>
       </c>
-      <c r="F354" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1688</v>
-      </c>
       <c r="H354" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14968,10 +15109,10 @@
         <v>1347</v>
       </c>
       <c r="G355" t="s">
-        <v>1689</v>
+        <v>1723</v>
       </c>
       <c r="H355" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14997,7 +15138,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15017,13 +15158,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
       <c r="G357" t="s">
-        <v>1690</v>
+        <v>1724</v>
       </c>
       <c r="H357" t="s">
-        <v>1796</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15046,10 +15187,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>947</v>
+        <v>1640</v>
       </c>
       <c r="H358" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15069,13 +15210,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="G359" t="s">
-        <v>1691</v>
+        <v>1725</v>
       </c>
       <c r="H359" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15098,10 +15239,10 @@
         <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1199</v>
+        <v>1686</v>
       </c>
       <c r="H360" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15121,13 +15262,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G361" t="s">
-        <v>1692</v>
+        <v>1726</v>
       </c>
       <c r="H361" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15153,7 +15294,7 @@
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15173,13 +15314,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="G363" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="H363" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15202,10 +15343,10 @@
         <v>1337</v>
       </c>
       <c r="G364" t="s">
-        <v>1694</v>
+        <v>1728</v>
       </c>
       <c r="H364" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15228,10 +15369,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1695</v>
+        <v>1729</v>
       </c>
       <c r="H365" t="s">
-        <v>1797</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15257,7 +15398,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15283,7 +15424,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15303,13 +15444,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G368" t="s">
-        <v>1696</v>
+        <v>1730</v>
       </c>
       <c r="H368" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15332,10 +15473,10 @@
         <v>1338</v>
       </c>
       <c r="G369" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="H369" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15355,13 +15496,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1433</v>
+        <v>1376</v>
       </c>
       <c r="G370" t="s">
-        <v>1698</v>
+        <v>1732</v>
       </c>
       <c r="H370" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15381,13 +15522,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G371" t="s">
-        <v>1699</v>
+        <v>1733</v>
       </c>
       <c r="H371" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15407,13 +15548,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G372" t="s">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="H372" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15433,13 +15574,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G373" t="s">
-        <v>1701</v>
+        <v>1735</v>
       </c>
       <c r="H373" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15462,10 +15603,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1702</v>
+        <v>1736</v>
       </c>
       <c r="H374" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15488,10 +15629,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1211</v>
+        <v>1737</v>
       </c>
       <c r="H375" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15511,13 +15652,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G376" t="s">
-        <v>1703</v>
+        <v>1738</v>
       </c>
       <c r="H376" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15537,13 +15678,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="G377" t="s">
-        <v>1704</v>
+        <v>1739</v>
       </c>
       <c r="H377" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15563,13 +15704,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1337</v>
+        <v>1426</v>
       </c>
       <c r="G378" t="s">
-        <v>1705</v>
+        <v>1740</v>
       </c>
       <c r="H378" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15589,13 +15730,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="G379" t="s">
-        <v>1706</v>
+        <v>1741</v>
       </c>
       <c r="H379" t="s">
-        <v>1781</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15621,7 +15762,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15641,13 +15782,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1436</v>
+        <v>1445</v>
       </c>
       <c r="G381" t="s">
-        <v>1707</v>
+        <v>1742</v>
       </c>
       <c r="H381" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15667,13 +15808,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1437</v>
+        <v>1446</v>
       </c>
       <c r="G382" t="s">
-        <v>1708</v>
+        <v>1743</v>
       </c>
       <c r="H382" t="s">
-        <v>1798</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15693,13 +15834,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1438</v>
+        <v>1447</v>
       </c>
       <c r="G383" t="s">
-        <v>1709</v>
+        <v>1744</v>
       </c>
       <c r="H383" t="s">
-        <v>1789</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15719,13 +15860,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1384</v>
+        <v>1448</v>
       </c>
       <c r="G384" t="s">
-        <v>1710</v>
+        <v>1745</v>
       </c>
       <c r="H384" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15748,10 +15889,10 @@
         <v>1345</v>
       </c>
       <c r="G385" t="s">
-        <v>1711</v>
+        <v>1746</v>
       </c>
       <c r="H385" t="s">
-        <v>1788</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15771,13 +15912,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1439</v>
+        <v>1449</v>
       </c>
       <c r="G386" t="s">
-        <v>1712</v>
+        <v>1747</v>
       </c>
       <c r="H386" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15797,13 +15938,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G387" t="s">
-        <v>1713</v>
+        <v>1748</v>
       </c>
       <c r="H387" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15823,13 +15964,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1354</v>
+        <v>1450</v>
       </c>
       <c r="G388" t="s">
-        <v>1714</v>
+        <v>1749</v>
       </c>
       <c r="H388" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15855,7 +15996,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15875,13 +16016,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G390" t="s">
-        <v>1715</v>
+        <v>1750</v>
       </c>
       <c r="H390" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15901,13 +16042,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G391" t="s">
-        <v>1716</v>
+        <v>1751</v>
       </c>
       <c r="H391" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15927,13 +16068,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="G392" t="s">
-        <v>1717</v>
+        <v>1752</v>
       </c>
       <c r="H392" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15953,13 +16094,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G393" t="s">
-        <v>1718</v>
+        <v>1753</v>
       </c>
       <c r="H393" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15979,13 +16120,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1373</v>
       </c>
       <c r="G394" t="s">
-        <v>1089</v>
+        <v>1754</v>
       </c>
       <c r="H394" t="s">
-        <v>1783</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16011,7 +16152,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16031,13 +16172,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1387</v>
+        <v>1285</v>
       </c>
       <c r="G396" t="s">
-        <v>1719</v>
+        <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16057,13 +16198,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G397" t="s">
-        <v>1703</v>
+        <v>1738</v>
       </c>
       <c r="H397" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16083,13 +16224,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1366</v>
+        <v>1343</v>
       </c>
       <c r="G398" t="s">
-        <v>1720</v>
+        <v>1755</v>
       </c>
       <c r="H398" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16115,7 +16256,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16135,13 +16276,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G400" t="s">
-        <v>1514</v>
+        <v>1536</v>
       </c>
       <c r="H400" t="s">
-        <v>1799</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16164,10 +16305,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1227</v>
+        <v>1756</v>
       </c>
       <c r="H401" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16187,13 +16328,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="G402" t="s">
-        <v>1721</v>
+        <v>1757</v>
       </c>
       <c r="H402" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16213,13 +16354,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G403" t="s">
-        <v>1722</v>
+        <v>1758</v>
       </c>
       <c r="H403" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16239,13 +16380,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G404" t="s">
-        <v>1723</v>
+        <v>1759</v>
       </c>
       <c r="H404" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16268,10 +16409,10 @@
         <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1507</v>
+        <v>1529</v>
       </c>
       <c r="H405" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16297,7 +16438,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16317,13 +16458,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="G407" t="s">
-        <v>1724</v>
+        <v>1760</v>
       </c>
       <c r="H407" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16343,13 +16484,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1453</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1761</v>
       </c>
       <c r="H408" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16372,10 +16513,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>968</v>
+        <v>1762</v>
       </c>
       <c r="H409" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16401,7 +16542,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16421,13 +16562,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="G411" t="s">
-        <v>1725</v>
+        <v>1763</v>
       </c>
       <c r="H411" t="s">
-        <v>1786</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16447,13 +16588,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1418</v>
+        <v>1436</v>
       </c>
       <c r="G412" t="s">
-        <v>1726</v>
+        <v>1764</v>
       </c>
       <c r="H412" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16473,13 +16614,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="G413" t="s">
-        <v>1727</v>
+        <v>1765</v>
       </c>
       <c r="H413" t="s">
-        <v>1785</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16502,10 +16643,10 @@
         <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1728</v>
+        <v>1766</v>
       </c>
       <c r="H414" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16525,13 +16666,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1389</v>
+        <v>1454</v>
       </c>
       <c r="G415" t="s">
-        <v>1729</v>
+        <v>1767</v>
       </c>
       <c r="H415" t="s">
-        <v>1800</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16557,7 +16698,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16580,10 +16721,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1241</v>
+        <v>1768</v>
       </c>
       <c r="H417" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16606,10 +16747,10 @@
         <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1730</v>
+        <v>1769</v>
       </c>
       <c r="H418" t="s">
-        <v>1787</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16629,13 +16770,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1386</v>
+        <v>1397</v>
       </c>
       <c r="G419" t="s">
-        <v>1731</v>
+        <v>1770</v>
       </c>
       <c r="H419" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16655,13 +16796,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="G420" t="s">
-        <v>1732</v>
+        <v>1771</v>
       </c>
       <c r="H420" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16681,13 +16822,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="G421" t="s">
-        <v>1733</v>
+        <v>1772</v>
       </c>
       <c r="H421" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16710,10 +16851,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>933</v>
+        <v>1494</v>
       </c>
       <c r="H422" t="s">
-        <v>1774</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16739,7 +16880,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16765,7 +16906,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16785,13 +16926,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="G425" t="s">
-        <v>1734</v>
+        <v>1773</v>
       </c>
       <c r="H425" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16811,13 +16952,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
       <c r="G426" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="H426" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16837,13 +16978,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1387</v>
+        <v>1285</v>
       </c>
       <c r="G427" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H427" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16866,10 +17007,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1737</v>
+        <v>1775</v>
       </c>
       <c r="H428" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16889,13 +17030,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
       <c r="G429" t="s">
-        <v>1738</v>
+        <v>1776</v>
       </c>
       <c r="H429" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16915,13 +17056,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="G430" t="s">
-        <v>1739</v>
+        <v>1777</v>
       </c>
       <c r="H430" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16941,13 +17082,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G431" t="s">
-        <v>1740</v>
+        <v>1778</v>
       </c>
       <c r="H431" t="s">
-        <v>1801</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16967,13 +17108,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="G432" t="s">
-        <v>1741</v>
+        <v>1779</v>
       </c>
       <c r="H432" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16999,7 +17140,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17022,10 +17163,10 @@
         <v>1337</v>
       </c>
       <c r="G434" t="s">
-        <v>1742</v>
+        <v>1780</v>
       </c>
       <c r="H434" t="s">
-        <v>1797</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17045,13 +17186,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="G435" t="s">
-        <v>1743</v>
+        <v>1781</v>
       </c>
       <c r="H435" t="s">
-        <v>1788</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17071,13 +17212,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G436" t="s">
-        <v>1744</v>
+        <v>1782</v>
       </c>
       <c r="H436" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17097,13 +17238,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1351</v>
+        <v>1278</v>
       </c>
       <c r="G437" t="s">
-        <v>1745</v>
+        <v>1783</v>
       </c>
       <c r="H437" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17129,7 +17270,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17149,13 +17290,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G439" t="s">
-        <v>1746</v>
+        <v>1784</v>
       </c>
       <c r="H439" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17175,13 +17316,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G440" t="s">
-        <v>1747</v>
+        <v>1785</v>
       </c>
       <c r="H440" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17201,13 +17342,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
       <c r="G441" t="s">
-        <v>1748</v>
+        <v>1786</v>
       </c>
       <c r="H441" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17227,13 +17368,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="G442" t="s">
-        <v>1749</v>
+        <v>1787</v>
       </c>
       <c r="H442" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17253,13 +17394,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1389</v>
+        <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1750</v>
+        <v>1788</v>
       </c>
       <c r="H443" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17279,13 +17420,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1366</v>
+        <v>1375</v>
       </c>
       <c r="G444" t="s">
-        <v>1751</v>
+        <v>1789</v>
       </c>
       <c r="H444" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17305,13 +17446,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
       <c r="G445" t="s">
-        <v>1752</v>
+        <v>1790</v>
       </c>
       <c r="H445" t="s">
-        <v>1802</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17331,13 +17472,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1375</v>
+        <v>1353</v>
       </c>
       <c r="G446" t="s">
-        <v>1753</v>
+        <v>1791</v>
       </c>
       <c r="H446" t="s">
-        <v>1776</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17360,10 +17501,10 @@
         <v>1338</v>
       </c>
       <c r="G447" t="s">
-        <v>1754</v>
+        <v>1792</v>
       </c>
       <c r="H447" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17386,10 +17527,10 @@
         <v>1337</v>
       </c>
       <c r="G448" t="s">
-        <v>1755</v>
+        <v>1793</v>
       </c>
       <c r="H448" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17409,13 +17550,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="G449" t="s">
-        <v>1756</v>
+        <v>1794</v>
       </c>
       <c r="H449" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17435,13 +17576,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G450" t="s">
-        <v>968</v>
+        <v>1795</v>
       </c>
       <c r="H450" t="s">
-        <v>1771</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17461,13 +17602,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1376</v>
+        <v>1460</v>
       </c>
       <c r="G451" t="s">
-        <v>1757</v>
+        <v>1796</v>
       </c>
       <c r="H451" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17487,13 +17628,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
       <c r="G452" t="s">
-        <v>1758</v>
+        <v>1797</v>
       </c>
       <c r="H452" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17513,13 +17654,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
       <c r="G453" t="s">
-        <v>1759</v>
+        <v>1798</v>
       </c>
       <c r="H453" t="s">
-        <v>1772</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17539,13 +17680,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G454" t="s">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="H454" t="s">
-        <v>1789</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17565,13 +17706,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
       <c r="G455" t="s">
-        <v>1761</v>
+        <v>1800</v>
       </c>
       <c r="H455" t="s">
-        <v>1794</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17591,13 +17732,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G456" t="s">
-        <v>1668</v>
+        <v>1702</v>
       </c>
       <c r="H456" t="s">
-        <v>1792</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17617,13 +17758,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
       <c r="G457" t="s">
-        <v>1762</v>
+        <v>1801</v>
       </c>
       <c r="H457" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17646,10 +17787,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1763</v>
+        <v>1802</v>
       </c>
       <c r="H458" t="s">
-        <v>1803</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17672,10 +17813,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1764</v>
+        <v>1803</v>
       </c>
       <c r="H459" t="s">
-        <v>1769</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17695,13 +17836,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G460" t="s">
-        <v>1765</v>
+        <v>1804</v>
       </c>
       <c r="H460" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17721,13 +17862,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1378</v>
+        <v>1465</v>
       </c>
       <c r="G461" t="s">
-        <v>1766</v>
+        <v>1805</v>
       </c>
       <c r="H461" t="s">
-        <v>1784</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17747,13 +17888,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1360</v>
+        <v>1466</v>
       </c>
       <c r="G462" t="s">
-        <v>1767</v>
+        <v>1806</v>
       </c>
       <c r="H462" t="s">
-        <v>1770</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17776,10 +17917,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1768</v>
+        <v>1807</v>
       </c>
       <c r="H463" t="s">
-        <v>1773</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/dp-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1828">
   <si>
     <t>id</t>
   </si>
@@ -4027,382 +4027,343 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE|FOOD</t>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>PRICES|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+    <t>PRICES|AMBIENCE|PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
@@ -4411,12 +4372,6 @@
     <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
     <t>|place</t>
   </si>
   <si>
@@ -4489,7 +4444,7 @@
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4579,7 +4534,7 @@
     <t>pizza|way</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>lunch|reviews</t>
@@ -4657,7 +4612,7 @@
     <t>d'|maitre</t>
   </si>
   <si>
-    <t>|dessert|$8.00!-</t>
+    <t>|dessert|$8.00</t>
   </si>
   <si>
     <t>|drinks</t>
@@ -4807,13 +4762,13 @@
     <t>yellowtail</t>
   </si>
   <si>
-    <t>choices|food|$18!-</t>
+    <t>choices|food|$18</t>
   </si>
   <si>
     <t>price|food|service</t>
   </si>
   <si>
-    <t>price|$3-6!-</t>
+    <t>price|$3-6</t>
   </si>
   <si>
     <t>takeout|tupperware|quality</t>
@@ -4870,7 +4825,7 @@
     <t>|menu|restaurant</t>
   </si>
   <si>
-    <t>|wines|$70!-|$30!-</t>
+    <t>|wines|$70|$30</t>
   </si>
   <si>
     <t>service|joint|price|category</t>
@@ -4993,7 +4948,7 @@
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|chips|side|$7!-</t>
+    <t>sandwiches|chips|side|$7</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
@@ -5011,7 +4966,7 @@
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>lobster|sandwich|price|$24!-</t>
+    <t>lobster|sandwich|price|$24</t>
   </si>
   <si>
     <t>|occassion|sort|candle</t>
@@ -5023,7 +4978,7 @@
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10!-</t>
+    <t>plate|cheese|bargain|delight|$10</t>
   </si>
   <si>
     <t>|list|wine</t>
@@ -5113,7 +5068,7 @@
     <t>|sandwich|cheese|manager</t>
   </si>
   <si>
-    <t>music|isnt|100 dollar!-</t>
+    <t>music|isnt|100 dollar</t>
   </si>
   <si>
     <t>atmoshere|bit</t>
@@ -5125,13 +5080,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*</t>
   </si>
   <si>
     <t>part|atmosphere|ls|bts</t>
   </si>
   <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
   </si>
   <si>
     <t>taste|music|dj|lady</t>
@@ -5260,13 +5215,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
+    <t>sushi|$20</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15!-</t>
+    <t>fish|chips|$15</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5275,7 +5230,7 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60!-</t>
+    <t>meal|$60</t>
   </si>
   <si>
     <t>|place|bit</t>
@@ -5287,16 +5242,16 @@
     <t>|dinner</t>
   </si>
   <si>
-    <t>dinner|feet|$400.00!-</t>
+    <t>dinner|feet|$400.00</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11!-</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>guacamole|plate|$11</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5338,7 +5293,7 @@
     <t>atmosphere|bit|scheme</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
+    <t>service|price|dish|$10</t>
   </si>
   <si>
     <t>martinis</t>
@@ -5347,7 +5302,7 @@
     <t>dj|bunch|birthday|friends</t>
   </si>
   <si>
-    <t>dinner|wine|$500!-</t>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5362,16 +5317,16 @@
     <t>environment|lot|guys|wives|escorts</t>
   </si>
   <si>
-    <t>|service|$500!-</t>
+    <t>|service|$500</t>
   </si>
   <si>
     <t>|diners</t>
   </si>
   <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>dinner|$55!-</t>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>dinner|$55</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
@@ -5386,10 +5341,10 @@
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25!-</t>
-  </si>
-  <si>
-    <t>food|$!-</t>
+    <t>restaurant|feel|price|place|$25</t>
+  </si>
+  <si>
+    <t>food|$</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5398,7 +5353,7 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city</t>
@@ -5407,19 +5362,19 @@
     <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
-    <t>deal|party|$29!-</t>
+    <t>deal|party|$29</t>
   </si>
   <si>
     <t>company|date|point|price|brasserie</t>
   </si>
   <si>
-    <t>service|$500!-</t>
+    <t>service|$500</t>
   </si>
   <si>
     <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
-    <t>bite|salmon|restaurants|salmon|$24!-</t>
+    <t>bite|salmon|restaurants|salmon|$24</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5428,7 +5383,7 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>joint|dog|glance|bark</t>
@@ -5949,10 +5904,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="H2" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5975,10 +5930,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="H3" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6004,7 +5959,7 @@
         <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6024,13 +5979,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="H5" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6050,13 +6005,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="H6" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6076,13 +6031,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="H7" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6102,13 +6057,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="H8" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6131,10 +6086,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="H9" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6154,13 +6109,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="H10" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6180,13 +6135,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="H11" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6206,13 +6161,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="H12" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6232,13 +6187,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="H13" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6261,10 +6216,10 @@
         <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="H14" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6284,13 +6239,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="H15" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6310,13 +6265,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G16" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="H16" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6336,13 +6291,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G17" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="H17" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6362,13 +6317,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="H18" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6388,7 +6343,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6414,7 +6369,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6434,13 +6389,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6460,13 +6415,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G22" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="H22" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6486,13 +6441,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="H23" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6518,7 +6473,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6538,13 +6493,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G25" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="H25" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6564,13 +6519,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G26" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="H26" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6596,7 +6551,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6616,13 +6571,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="H28" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6642,13 +6597,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G29" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="H29" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6668,13 +6623,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G30" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="H30" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6694,13 +6649,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G31" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="H31" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6720,13 +6675,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G32" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="H32" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6752,7 +6707,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6778,7 +6733,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6798,13 +6753,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="G35" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="H35" t="s">
-        <v>1816</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6824,13 +6779,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G36" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="H36" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6856,7 +6811,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6879,10 +6834,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="H38" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6902,13 +6857,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G39" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="H39" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6928,13 +6883,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="H40" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6954,13 +6909,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="H41" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6980,13 +6935,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G42" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="H42" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7006,13 +6961,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="H43" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7038,7 +6993,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7058,13 +7013,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="H45" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7084,13 +7039,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G46" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="H46" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7110,13 +7065,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="H47" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7142,7 +7097,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7162,13 +7117,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="H49" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7188,13 +7143,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="G50" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="H50" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7214,13 +7169,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="G51" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="H51" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7240,13 +7195,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G52" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="H52" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7266,13 +7221,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G53" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="H53" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7292,13 +7247,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1365</v>
+        <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="H54" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7318,13 +7273,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G55" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="H55" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7344,13 +7299,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G56" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="H56" t="s">
-        <v>1821</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7370,13 +7325,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G57" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="H57" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7396,13 +7351,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G58" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="H58" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7422,13 +7377,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="G59" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="H59" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7448,13 +7403,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G60" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="H60" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7474,13 +7429,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G61" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="H61" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7500,13 +7455,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G62" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="H62" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7526,13 +7481,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="G63" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="H63" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7552,13 +7507,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="H64" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7584,7 +7539,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7610,7 +7565,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7633,10 +7588,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="H67" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7659,10 +7614,10 @@
         <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="H68" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7682,13 +7637,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G69" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="H69" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7708,13 +7663,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G70" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="H70" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7734,13 +7689,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G71" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="H71" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7760,13 +7715,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G72" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="H72" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7792,7 +7747,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7812,13 +7767,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G74" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="H74" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7841,10 +7796,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="H75" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7864,13 +7819,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G76" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="H76" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7890,13 +7845,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="G77" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
       <c r="H77" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7916,13 +7871,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G78" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="H78" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7942,13 +7897,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
       <c r="H79" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7974,7 +7929,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7994,13 +7949,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1375</v>
+        <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="H81" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8026,7 +7981,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8052,7 +8007,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8072,13 +8027,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G84" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="H84" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8098,13 +8053,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="H85" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8127,10 +8082,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="H86" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8150,13 +8105,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G87" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="H87" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8176,13 +8131,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G88" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H88" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8202,13 +8157,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G89" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="H89" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8228,13 +8183,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G90" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="H90" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8254,13 +8209,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="G91" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="H91" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8280,13 +8235,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="G92" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="H92" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8306,13 +8261,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1379</v>
+        <v>1340</v>
       </c>
       <c r="G93" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="H93" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8332,13 +8287,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G94" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="H94" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8358,13 +8313,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="G95" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="H95" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8384,13 +8339,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1338</v>
+        <v>1373</v>
       </c>
       <c r="G96" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="H96" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8410,13 +8365,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G97" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="H97" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8436,13 +8391,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G98" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="H98" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8462,13 +8417,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G99" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="H99" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8491,10 +8446,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="H100" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8514,13 +8469,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="H101" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8543,10 +8498,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="H102" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8566,13 +8521,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G103" t="s">
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8592,13 +8547,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G104" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="H104" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8624,7 +8579,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8644,13 +8599,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="H106" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8670,13 +8625,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G107" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="H107" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8696,13 +8651,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G108" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="H108" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8722,13 +8677,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="H109" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8754,7 +8709,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8780,7 +8735,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8800,13 +8755,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G112" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="H112" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8826,13 +8781,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G113" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="H113" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8858,7 +8813,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8878,13 +8833,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G115" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="H115" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8904,13 +8859,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G116" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="H116" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8930,13 +8885,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1383</v>
+        <v>1346</v>
       </c>
       <c r="G117" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="H117" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8956,13 +8911,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="G118" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="H118" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8982,13 +8937,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G119" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="H119" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9008,13 +8963,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
       <c r="G120" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="H120" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9034,13 +8989,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="G121" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="H121" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9066,7 +9021,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9086,13 +9041,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G123" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="H123" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9118,7 +9073,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9138,13 +9093,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G125" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="H125" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9164,13 +9119,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="H126" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9190,13 +9145,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="H127" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9222,7 +9177,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9242,13 +9197,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1386</v>
+        <v>1357</v>
       </c>
       <c r="G129" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="H129" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9268,13 +9223,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1387</v>
+        <v>1357</v>
       </c>
       <c r="G130" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="H130" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9294,13 +9249,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1386</v>
+        <v>1347</v>
       </c>
       <c r="G131" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="H131" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9320,13 +9275,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G132" t="s">
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9352,7 +9307,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9372,13 +9327,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G134" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="H134" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9398,13 +9353,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1389</v>
+        <v>1347</v>
       </c>
       <c r="G135" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="H135" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9424,13 +9379,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G136" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="H136" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9450,13 +9405,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1390</v>
+        <v>1340</v>
       </c>
       <c r="G137" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="H137" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9482,7 +9437,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9502,13 +9457,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G139" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="H139" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9528,13 +9483,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1391</v>
+        <v>1348</v>
       </c>
       <c r="G140" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="H140" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9557,10 +9512,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="H141" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9580,13 +9535,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1392</v>
+        <v>1364</v>
       </c>
       <c r="G142" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="H142" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9606,13 +9561,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="G143" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="H143" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9632,13 +9587,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G144" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="H144" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9658,13 +9613,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="G145" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="H145" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9684,13 +9639,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="G146" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="H146" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9713,10 +9668,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="H147" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9736,13 +9691,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G148" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="H148" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9762,13 +9717,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="H149" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9788,13 +9743,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G150" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="H150" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9814,13 +9769,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="G151" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="H151" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9840,13 +9795,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G152" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="H152" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9866,13 +9821,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G153" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="H153" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9892,13 +9847,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
       <c r="G154" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="H154" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9918,13 +9873,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G155" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
       <c r="H155" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9950,7 +9905,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9970,13 +9925,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="H157" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9996,13 +9951,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
       <c r="G158" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="H158" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10028,7 +9983,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10054,7 +10009,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10080,7 +10035,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10106,7 +10061,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10129,10 +10084,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="H163" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10158,7 +10113,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10178,13 +10133,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G165" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="H165" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10207,10 +10162,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="H166" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10230,13 +10185,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="G167" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="H167" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10256,13 +10211,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="G168" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="H168" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10288,7 +10243,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10308,13 +10263,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="G170" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="H170" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10334,13 +10289,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="G171" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="H171" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10360,13 +10315,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="H172" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10386,13 +10341,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="H173" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10412,13 +10367,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G174" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="H174" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10438,13 +10393,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G175" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="H175" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10464,13 +10419,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G176" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="H176" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10490,13 +10445,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G177" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H177" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10516,13 +10471,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G178" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H178" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10542,13 +10497,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="G179" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="H179" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10568,13 +10523,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G180" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="H180" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10594,13 +10549,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="G181" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="H181" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10620,13 +10575,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="G182" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="H182" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10652,7 +10607,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10675,10 +10630,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="H184" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10698,13 +10653,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G185" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="H185" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10730,7 +10685,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10756,7 +10711,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10782,7 +10737,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10808,7 +10763,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10834,7 +10789,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10854,13 +10809,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="G191" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="H191" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10880,13 +10835,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G192" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="H192" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10906,13 +10861,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G193" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H193" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10932,13 +10887,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="H194" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10964,7 +10919,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10984,13 +10939,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G196" t="s">
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11016,7 +10971,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11036,7 +10991,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11056,13 +11011,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G199" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="H199" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11088,7 +11043,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11108,13 +11063,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G201" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="H201" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11134,13 +11089,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="G202" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="H202" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11166,7 +11121,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11186,13 +11141,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G204" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="H204" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11212,13 +11167,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G205" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="H205" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11238,13 +11193,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="G206" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="H206" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11264,13 +11219,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G207" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="H207" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11290,13 +11245,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G208" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="H208" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11316,13 +11271,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G209" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="H209" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11345,10 +11300,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="H210" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11368,13 +11323,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="G211" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="H211" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11394,13 +11349,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="G212" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="H212" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11426,7 +11381,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11446,13 +11401,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="G214" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="H214" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11472,13 +11427,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G215" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="H215" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11498,13 +11453,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="G216" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="H216" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11524,13 +11479,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="H217" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11550,13 +11505,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="G218" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="H218" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11576,13 +11531,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G219" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="H219" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11602,13 +11557,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="G220" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="H220" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11628,13 +11583,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G221" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="H221" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11654,13 +11609,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G222" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="H222" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11680,13 +11635,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G223" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="H223" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11706,13 +11661,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="G224" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="H224" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11738,7 +11693,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11761,10 +11716,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="H226" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11784,13 +11739,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="G227" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="H227" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11813,10 +11768,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="H228" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11842,7 +11797,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11865,10 +11820,10 @@
         <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="H230" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11891,10 +11846,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="H231" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11917,10 +11872,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="H232" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11940,13 +11895,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1353</v>
+        <v>1399</v>
       </c>
       <c r="G233" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="H233" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11966,13 +11921,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="G234" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="H234" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11992,13 +11947,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G235" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="H235" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12018,13 +11973,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G236" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="H236" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12044,13 +11999,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G237" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="H237" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12070,13 +12025,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="G238" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="H238" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12096,13 +12051,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G239" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="H239" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12122,13 +12077,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="G240" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="H240" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12148,13 +12103,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G241" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="H241" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12174,13 +12129,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G242" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="H242" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12206,7 +12161,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12232,7 +12187,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12258,7 +12213,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12284,7 +12239,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12304,13 +12259,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1368</v>
+        <v>1341</v>
       </c>
       <c r="G247" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="H247" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12330,13 +12285,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="G248" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="H248" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12356,13 +12311,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G249" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="H249" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12385,10 +12340,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="H250" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12408,13 +12363,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="G251" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="H251" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12440,7 +12395,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12466,7 +12421,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12492,7 +12447,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12512,13 +12467,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="G255" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="H255" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12541,10 +12496,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="H256" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12567,10 +12522,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="H257" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12590,13 +12545,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1415</v>
+        <v>1351</v>
       </c>
       <c r="G258" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="H258" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12616,13 +12571,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1380</v>
+        <v>1404</v>
       </c>
       <c r="G259" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="H259" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12645,10 +12600,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="H260" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12674,7 +12629,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12700,7 +12655,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12720,13 +12675,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="G263" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="H263" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12752,7 +12707,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12772,13 +12727,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="G265" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="H265" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12798,13 +12753,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="G266" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="H266" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12824,13 +12779,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G267" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="H267" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12850,13 +12805,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="G268" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="H268" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12876,13 +12831,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1389</v>
+        <v>1347</v>
       </c>
       <c r="G269" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="H269" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12902,13 +12857,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G270" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="H270" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12928,13 +12883,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G271" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="H271" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12954,13 +12909,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1420</v>
+        <v>1349</v>
       </c>
       <c r="G272" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="H272" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12980,13 +12935,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G273" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="H273" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13006,13 +12961,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G274" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="H274" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13032,13 +12987,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
       <c r="G275" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="H275" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13061,10 +13016,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="H276" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13084,13 +13039,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G277" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="H277" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13110,13 +13065,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G278" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="H278" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13142,7 +13097,7 @@
         <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13165,10 +13120,10 @@
         <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1675</v>
+        <v>1660</v>
       </c>
       <c r="H280" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13188,13 +13143,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1383</v>
+        <v>1346</v>
       </c>
       <c r="G281" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="H281" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13214,13 +13169,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1358</v>
+        <v>1409</v>
       </c>
       <c r="G282" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="H282" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13240,13 +13195,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13266,13 +13221,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="G284" t="s">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="H284" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13292,13 +13247,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="G285" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="H285" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13318,13 +13273,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="G286" t="s">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="H286" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13350,7 +13305,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13370,13 +13325,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="G288" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="H288" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13396,13 +13351,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="G289" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="H289" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13422,13 +13377,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G290" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="H290" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13448,13 +13403,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G291" t="s">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="H291" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13474,13 +13429,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1427</v>
+        <v>1392</v>
       </c>
       <c r="G292" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="H292" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13503,10 +13458,10 @@
         <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="H293" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13532,7 +13487,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13552,13 +13507,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G295" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="H295" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13584,7 +13539,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13604,13 +13559,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G297" t="s">
-        <v>1688</v>
+        <v>1673</v>
       </c>
       <c r="H297" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13630,13 +13585,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G298" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="H298" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13662,7 +13617,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13688,7 +13643,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13708,13 +13663,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G301" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="H301" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13734,13 +13689,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1345</v>
+        <v>1373</v>
       </c>
       <c r="G302" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
       <c r="H302" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13760,13 +13715,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="G303" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
       <c r="H303" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13792,7 +13747,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13818,7 +13773,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13838,13 +13793,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G306" t="s">
-        <v>1693</v>
+        <v>1678</v>
       </c>
       <c r="H306" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13870,7 +13825,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13893,10 +13848,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1694</v>
+        <v>1679</v>
       </c>
       <c r="H308" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13916,13 +13871,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="G309" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="H309" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13948,7 +13903,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13968,13 +13923,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G311" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="H311" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14000,7 +13955,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14026,7 +13981,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14052,7 +14007,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14072,13 +14027,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="G315" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="H315" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14098,13 +14053,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G316" t="s">
-        <v>1698</v>
+        <v>1683</v>
       </c>
       <c r="H316" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14130,7 +14085,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14156,7 +14111,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14182,7 +14137,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14208,7 +14163,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14228,13 +14183,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="G321" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="H321" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14254,13 +14209,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G322" t="s">
-        <v>1700</v>
+        <v>1685</v>
       </c>
       <c r="H322" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14280,13 +14235,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="G323" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="H323" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14306,13 +14261,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G324" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="H324" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14338,7 +14293,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14364,7 +14319,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14384,13 +14339,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="G327" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="H327" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14410,13 +14365,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="G328" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="H328" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14436,13 +14391,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="G329" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="H329" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14462,13 +14417,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G330" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
       <c r="H330" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14488,13 +14443,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="G331" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="H331" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14514,13 +14469,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G332" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
       <c r="H332" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14543,10 +14498,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="H333" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14569,10 +14524,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
       <c r="H334" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14592,13 +14547,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="G335" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="H335" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14618,13 +14573,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="G336" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="H336" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14644,13 +14599,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G337" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="H337" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14670,13 +14625,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="G338" t="s">
-        <v>1713</v>
+        <v>1698</v>
       </c>
       <c r="H338" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14702,7 +14657,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14722,13 +14677,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="H340" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14748,13 +14703,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1345</v>
+        <v>1373</v>
       </c>
       <c r="G341" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="H341" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14780,7 +14735,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14800,13 +14755,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1380</v>
+        <v>1424</v>
       </c>
       <c r="G343" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="H343" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14826,13 +14781,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="G344" t="s">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="H344" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14852,13 +14807,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1344</v>
+        <v>1426</v>
       </c>
       <c r="G345" t="s">
-        <v>1718</v>
+        <v>1703</v>
       </c>
       <c r="H345" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14884,7 +14839,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14907,10 +14862,10 @@
         <v>1427</v>
       </c>
       <c r="G347" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="H347" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14936,7 +14891,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14962,7 +14917,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14982,13 +14937,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="G350" t="s">
-        <v>1720</v>
+        <v>1705</v>
       </c>
       <c r="H350" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15008,13 +14963,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="G351" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="H351" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15034,13 +14989,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1441</v>
+        <v>1351</v>
       </c>
       <c r="G352" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="H352" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15060,13 +15015,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1442</v>
+        <v>1359</v>
       </c>
       <c r="G353" t="s">
-        <v>1722</v>
+        <v>1707</v>
       </c>
       <c r="H353" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15086,7 +15041,7 @@
         <v>1276</v>
       </c>
       <c r="H354" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15106,13 +15061,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G355" t="s">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="H355" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15138,7 +15093,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15158,13 +15113,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="G357" t="s">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="H357" t="s">
-        <v>1835</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15187,10 +15142,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="H358" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15210,13 +15165,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="G359" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="H359" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15236,13 +15191,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G360" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="H360" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15262,13 +15217,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="G361" t="s">
-        <v>1726</v>
+        <v>1711</v>
       </c>
       <c r="H361" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15288,13 +15243,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15314,13 +15269,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1415</v>
+        <v>1351</v>
       </c>
       <c r="G363" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="H363" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15340,13 +15295,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G364" t="s">
-        <v>1728</v>
+        <v>1713</v>
       </c>
       <c r="H364" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15369,10 +15324,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="H365" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15398,7 +15353,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15424,7 +15379,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15444,13 +15399,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G368" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="H368" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15470,13 +15425,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="H369" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15496,13 +15451,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1376</v>
+        <v>1354</v>
       </c>
       <c r="G370" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="H370" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15522,13 +15477,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="H371" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15548,13 +15503,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G372" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="H372" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15574,13 +15529,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1375</v>
+        <v>1337</v>
       </c>
       <c r="G373" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="H373" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15603,10 +15558,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="H374" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15629,10 +15584,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="H375" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15652,13 +15607,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G376" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="H376" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15678,13 +15633,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="G377" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="H377" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15704,13 +15659,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="G378" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="H378" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15730,13 +15685,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="G379" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="H379" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15762,7 +15717,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15782,13 +15737,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="G381" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="H381" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15808,13 +15763,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="G382" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="H382" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15834,13 +15789,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="G383" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="H383" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15860,13 +15815,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="G384" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="H384" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15886,13 +15841,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1345</v>
+        <v>1373</v>
       </c>
       <c r="G385" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="H385" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15912,13 +15867,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="G386" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="H386" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15938,13 +15893,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G387" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="H387" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15964,13 +15919,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1450</v>
+        <v>1419</v>
       </c>
       <c r="G388" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="H388" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15996,7 +15951,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16016,13 +15971,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="G390" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="H390" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16042,13 +15997,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G391" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="H391" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16068,13 +16023,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="G392" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="H392" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16094,13 +16049,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G393" t="s">
-        <v>1753</v>
+        <v>1738</v>
       </c>
       <c r="H393" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16120,13 +16075,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G394" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="H394" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16152,7 +16107,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16178,7 +16133,7 @@
         <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16198,13 +16153,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G397" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="H397" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16224,13 +16179,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1343</v>
+        <v>1438</v>
       </c>
       <c r="G398" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="H398" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16256,7 +16211,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16276,13 +16231,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G400" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="H400" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16305,10 +16260,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="H401" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16328,13 +16283,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="G402" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="H402" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16354,13 +16309,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="H403" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16380,13 +16335,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="G404" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="H404" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16406,13 +16361,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G405" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
       <c r="H405" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16438,7 +16393,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16458,13 +16413,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="G407" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="H407" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16484,13 +16439,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1453</v>
+        <v>1404</v>
       </c>
       <c r="G408" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="H408" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16513,10 +16468,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="H409" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16542,7 +16497,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16562,13 +16517,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G411" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="H411" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16588,13 +16543,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="G412" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="H412" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16614,13 +16569,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1344</v>
+        <v>1426</v>
       </c>
       <c r="G413" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="H413" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16640,13 +16595,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G414" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="H414" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16666,13 +16621,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="G415" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="H415" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16698,7 +16653,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16718,13 +16673,13 @@
         <v>1285</v>
       </c>
       <c r="F417" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G417" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="H417" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16744,13 +16699,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G418" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="H418" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16770,13 +16725,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G419" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="H419" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16796,13 +16751,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1348</v>
+        <v>1370</v>
       </c>
       <c r="G420" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="H420" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16822,13 +16777,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="G421" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="H421" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16851,10 +16806,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="H422" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16880,7 +16835,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16906,7 +16861,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16926,13 +16881,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="G425" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="H425" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16952,13 +16907,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="G426" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="H426" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16978,13 +16933,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="H427" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17007,10 +16962,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="H428" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17030,13 +16985,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="G429" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="H429" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17056,13 +17011,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="G430" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="H430" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17082,13 +17037,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="G431" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
       <c r="H431" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17108,13 +17063,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G432" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
       <c r="H432" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17140,7 +17095,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17160,13 +17115,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G434" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="H434" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17186,13 +17141,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="G435" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
       <c r="H435" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17212,13 +17167,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G436" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="H436" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17238,13 +17193,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="H437" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17270,7 +17225,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17290,13 +17245,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G439" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="H439" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17316,13 +17271,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G440" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="H440" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17342,13 +17297,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1458</v>
+        <v>1340</v>
       </c>
       <c r="G441" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="H441" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17368,13 +17323,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1399</v>
+        <v>1373</v>
       </c>
       <c r="G442" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="H442" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17397,10 +17352,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
       <c r="H443" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17420,13 +17375,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1375</v>
+        <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="H444" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17446,13 +17401,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="G445" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
       <c r="H445" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17472,13 +17427,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G446" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
       <c r="H446" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17498,13 +17453,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="H447" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17524,13 +17479,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="G448" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="H448" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17550,13 +17505,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1387</v>
+        <v>1447</v>
       </c>
       <c r="G449" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="H449" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17576,13 +17531,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="G450" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H450" t="s">
         <v>1795</v>
-      </c>
-      <c r="H450" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17602,13 +17557,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1460</v>
+        <v>1359</v>
       </c>
       <c r="G451" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H451" t="s">
         <v>1796</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17628,13 +17583,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="G452" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
       <c r="H452" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17654,13 +17609,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="G453" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
       <c r="H453" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17680,13 +17635,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G454" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
       <c r="H454" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17706,13 +17661,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="G455" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="H455" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17732,13 +17687,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G456" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="H456" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17758,13 +17713,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="G457" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
       <c r="H457" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17787,10 +17742,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="H458" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17813,10 +17768,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
       <c r="H459" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17836,13 +17791,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G460" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
       <c r="H460" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17862,13 +17817,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1465</v>
+        <v>1403</v>
       </c>
       <c r="G461" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
       <c r="H461" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17888,13 +17843,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1466</v>
+        <v>1346</v>
       </c>
       <c r="G462" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
       <c r="H462" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17917,10 +17872,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="H463" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
     </row>
   </sheetData>
